--- a/medicine/Sexualité et sexologie/Emmanuelle_(roman)/Emmanuelle_(roman).xlsx
+++ b/medicine/Sexualité et sexologie/Emmanuelle_(roman)/Emmanuelle_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Emmanuelle est un roman érotique écrit en français écrit par Marayat Bibidh sous le nom de plume Emmanuelle Arsan.
-Il est initialement publié anonymement en juin 1959 (sans lieu d'édition, sans nom d'auteur, sans nom d'éditeur et sans date)[1]. Il faut attendre le premier trimestre 1967 pour voir apparaitre l'édition officielle, publiée sous le nom de plume Emmanuelle Arsan, aux éditions Éric Losfeld, le terrain vague. Cette édition est rapidement condamnée, interdite de vente au mineurs en moins de 18 ans, interdiction de publicité.
+Il est initialement publié anonymement en juin 1959 (sans lieu d'édition, sans nom d'auteur, sans nom d'éditeur et sans date). Il faut attendre le premier trimestre 1967 pour voir apparaitre l'édition officielle, publiée sous le nom de plume Emmanuelle Arsan, aux éditions Éric Losfeld, le terrain vague. Cette édition est rapidement condamnée, interdite de vente au mineurs en moins de 18 ans, interdiction de publicité.
 Ce roman est en fait un premier tome, un second opus sortant ensuite sous le titre L'Anti-vierge Emmanuelle.
 Emmanuelle raconte une série de fantasmes érotiques explicites de l'autrice dans lesquels elle a des relations sexuelles avec plusieurs hommes et femmes, souvent anonymes, ainsi qu'avec son mari. Il est écrit à la première personne et le lecteur prend ainsi connaissance des événements entièrement à travers les yeux de l'héroïne sexuellement aventureuse.
 Le livre s'est largement vendu et a ensuite été adapté au cinéma sous le même titre par Just Jaeckin en 1974, puis a donné lieu à de nombreux autres films ou téléfilms.
